--- a/testing/d1c_se.xlsx
+++ b/testing/d1c_se.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="49" uniqueCount="35">
   <si>
     <t>d1c_glmm</t>
   </si>
@@ -27,91 +27,94 @@
     <t xml:space="preserve">  1</t>
   </si>
   <si>
-    <t>(0.058)</t>
+    <t>(0.051)</t>
+  </si>
+  <si>
+    <t>(0.052)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2</t>
+  </si>
+  <si>
+    <t>(0.054)</t>
+  </si>
+  <si>
+    <t>(0.057)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  3</t>
   </si>
   <si>
     <t>(0.061)</t>
   </si>
   <si>
-    <t xml:space="preserve">  2</t>
-  </si>
-  <si>
-    <t>(0.059)</t>
+    <t>(0.064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4</t>
+  </si>
+  <si>
+    <t>(0.070)</t>
+  </si>
+  <si>
+    <t>(0.074)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5</t>
+  </si>
+  <si>
+    <t>(0.079)</t>
+  </si>
+  <si>
+    <t>(0.083)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>M1[i]</t>
+  </si>
+  <si>
+    <t>(0.000)</t>
+  </si>
+  <si>
+    <t>M2[i&gt;id]</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>var(M1[i])</t>
+  </si>
+  <si>
+    <t>(0.025)</t>
+  </si>
+  <si>
+    <t>(0.027)</t>
+  </si>
+  <si>
+    <t>var(M2[i&gt;id])</t>
+  </si>
+  <si>
+    <t>(0.092)</t>
+  </si>
+  <si>
+    <t>(0.093)</t>
   </si>
   <si>
     <t>(0.062)</t>
   </si>
   <si>
-    <t xml:space="preserve">  3</t>
-  </si>
-  <si>
-    <t>(0.064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  4</t>
-  </si>
-  <si>
-    <t>(0.067)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  5</t>
-  </si>
-  <si>
-    <t>(0.070)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>(0.032)</t>
-  </si>
-  <si>
-    <t>(0.031)</t>
-  </si>
-  <si>
-    <t>M1[i]</t>
-  </si>
-  <si>
-    <t>(0.000)</t>
-  </si>
-  <si>
-    <t>M2[i&gt;id]</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>var(M1[i])</t>
-  </si>
-  <si>
-    <t>(0.045)</t>
-  </si>
-  <si>
-    <t>(0.050)</t>
-  </si>
-  <si>
-    <t>var(M2[i&gt;id])</t>
-  </si>
-  <si>
-    <t>(0.029)</t>
-  </si>
-  <si>
-    <t>(0.063)</t>
-  </si>
-  <si>
-    <t>(0.053)</t>
-  </si>
-  <si>
-    <t>(0.048)</t>
-  </si>
-  <si>
-    <t>(0.087)</t>
+    <t>(0.155)</t>
+  </si>
+  <si>
+    <t>(0.030)</t>
+  </si>
+  <si>
+    <t>(0.046)</t>
   </si>
   <si>
     <t>ln_p</t>
-  </si>
-  <si>
-    <t>(0.027)</t>
   </si>
   <si>
     <t>Number of observations</t>
@@ -1905,37 +1908,37 @@
         <v>9</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -1943,70 +1946,70 @@
         <v>3</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="52" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>19</v>
-      </c>
       <c r="C11" s="62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="64" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="76" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -2014,50 +2017,50 @@
         <v>3</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="88" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C20" s="102" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B21" s="109">
-        <v>7701</v>
+        <v>8415</v>
       </c>
       <c r="C21" s="113">
-        <v>9356</v>
+        <v>10251</v>
       </c>
     </row>
   </sheetData>
